--- a/Resource/excel/table/K-框架-玩家属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/table/K-框架-玩家属性-(框架维护,请勿修改).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="0" windowWidth="26310" windowHeight="13065" activeTab="2"/>
+    <workbookView xWindow="6210" yWindow="0" windowWidth="26310" windowHeight="13065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="frame" sheetId="9" r:id="rId1"/>
@@ -2085,9 +2085,6 @@
     <t>sevenreward</t>
   </si>
   <si>
-    <t>签到时间(服务器使用)</t>
-  </si>
-  <si>
     <t>连续签到次数</t>
   </si>
   <si>
@@ -2837,6 +2834,10 @@
   </si>
   <si>
     <t>medicine</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到时间(服务器使用)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3539,7 +3540,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -4024,13 +4025,13 @@
     </row>
     <row r="8" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>25</v>
@@ -4101,7 +4102,7 @@
     </row>
     <row r="9" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -4277,13 +4278,13 @@
     </row>
     <row r="11" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
@@ -4348,13 +4349,13 @@
     </row>
     <row r="12" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>125</v>
@@ -4419,13 +4420,13 @@
     </row>
     <row r="13" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>36</v>
@@ -4490,13 +4491,13 @@
     </row>
     <row r="14" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>125</v>
@@ -4561,13 +4562,13 @@
     </row>
     <row r="15" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>125</v>
@@ -4632,13 +4633,13 @@
     </row>
     <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>125</v>
@@ -4703,13 +4704,13 @@
     </row>
     <row r="17" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>125</v>
@@ -4774,13 +4775,13 @@
     </row>
     <row r="18" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>125</v>
@@ -4845,19 +4846,19 @@
     </row>
     <row r="19" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>26</v>
@@ -4928,7 +4929,7 @@
     </row>
     <row r="20" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>27</v>
@@ -4940,7 +4941,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>26</v>
@@ -5011,19 +5012,19 @@
     </row>
     <row r="21" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -5085,19 +5086,19 @@
     </row>
     <row r="22" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P22" s="4">
         <v>0</v>
@@ -5159,10 +5160,10 @@
     </row>
     <row r="23" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>26</v>
@@ -5245,13 +5246,13 @@
     </row>
     <row r="24" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>220</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>221</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -5265,7 +5266,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -5333,13 +5334,13 @@
     </row>
     <row r="25" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -5419,10 +5420,10 @@
     </row>
     <row r="26" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>41</v>
@@ -5505,17 +5506,17 @@
     </row>
     <row r="27" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -5591,17 +5592,17 @@
     </row>
     <row r="28" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>229</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>230</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -5677,13 +5678,13 @@
     </row>
     <row r="29" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
@@ -5769,13 +5770,13 @@
         <v>39</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>26</v>
@@ -5846,10 +5847,10 @@
     </row>
     <row r="31" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>26</v>
@@ -5917,10 +5918,10 @@
     </row>
     <row r="32" spans="1:38" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>35</v>
@@ -5988,13 +5989,13 @@
     </row>
     <row r="33" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26" t="s">
@@ -6074,19 +6075,19 @@
     </row>
     <row r="34" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>26</v>
@@ -6157,10 +6158,10 @@
     </row>
     <row r="35" spans="1:39" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>122</v>
@@ -6169,7 +6170,7 @@
         <v>28</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>26</v>
@@ -6240,10 +6241,10 @@
     </row>
     <row r="36" spans="1:39" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>26</v>
@@ -6326,10 +6327,10 @@
     </row>
     <row r="37" spans="1:39" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>35</v>
@@ -6415,7 +6416,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>26</v>
@@ -6499,10 +6500,10 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>35</v>
@@ -6609,7 +6610,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -7094,22 +7095,22 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -7198,7 +7199,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -7683,22 +7684,22 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>26</v>
@@ -8608,7 +8609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -9225,16 +9226,16 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
@@ -9331,10 +9332,10 @@
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>28</v>
@@ -9861,7 +9862,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>121</v>
@@ -9947,13 +9948,13 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
@@ -10033,13 +10034,13 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
@@ -10119,13 +10120,13 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
@@ -10205,13 +10206,13 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
@@ -10291,13 +10292,13 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
@@ -11691,8 +11692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12330,13 +12331,13 @@
     </row>
     <row r="10" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>331</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>125</v>
@@ -12401,13 +12402,13 @@
     </row>
     <row r="11" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>36</v>
@@ -12495,7 +12496,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -12980,19 +12981,19 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -13001,10 +13002,10 @@
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -13066,10 +13067,10 @@
     </row>
     <row r="9" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>168</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>26</v>
@@ -13144,7 +13145,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>41</v>
@@ -13219,10 +13220,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>25</v>
@@ -13291,20 +13292,20 @@
     </row>
     <row r="12" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P12" s="16">
         <v>0</v>
@@ -13366,20 +13367,20 @@
     </row>
     <row r="13" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>173</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P13" s="16">
         <v>0</v>
@@ -13441,10 +13442,10 @@
     </row>
     <row r="14" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>131</v>
@@ -13454,7 +13455,7 @@
       </c>
       <c r="F14" s="19"/>
       <c r="J14" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P14" s="16">
         <v>0</v>
@@ -13516,16 +13517,16 @@
     </row>
     <row r="15" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>178</v>
-      </c>
       <c r="E15" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F15" s="19"/>
       <c r="J15" s="19"/>
@@ -13610,7 +13611,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -14095,20 +14096,20 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -14117,7 +14118,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -14190,17 +14191,17 @@
     </row>
     <row r="9" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>185</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -14277,17 +14278,17 @@
     </row>
     <row r="10" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>188</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>189</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -14384,7 +14385,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -14869,19 +14870,19 @@
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>26</v>
@@ -14952,13 +14953,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P9" s="20">
         <v>0</v>
@@ -15020,13 +15021,13 @@
     </row>
     <row r="10" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>246</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>247</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>36</v>
@@ -15091,13 +15092,13 @@
     </row>
     <row r="11" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>248</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>249</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>76</v>
@@ -15162,13 +15163,13 @@
     </row>
     <row r="12" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>250</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>251</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>36</v>
@@ -15233,13 +15234,13 @@
     </row>
     <row r="13" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>253</v>
-      </c>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>36</v>
@@ -15304,16 +15305,16 @@
     </row>
     <row r="14" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="E14" s="20" t="s">
         <v>255</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>256</v>
       </c>
       <c r="P14" s="20">
         <v>0</v>
@@ -15375,16 +15376,16 @@
     </row>
     <row r="15" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>258</v>
-      </c>
       <c r="E15" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P15" s="20">
         <v>0</v>
@@ -15446,13 +15447,13 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="20" t="s">
         <v>260</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>261</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>55</v>
@@ -15517,13 +15518,13 @@
     </row>
     <row r="17" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>262</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>263</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>125</v>
@@ -15588,13 +15589,13 @@
     </row>
     <row r="18" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>264</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>265</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>125</v>
@@ -15659,13 +15660,13 @@
     </row>
     <row r="19" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>266</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>267</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>55</v>
@@ -15730,13 +15731,13 @@
     </row>
     <row r="20" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>268</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>269</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>125</v>
@@ -15801,13 +15802,13 @@
     </row>
     <row r="21" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>125</v>
@@ -15889,7 +15890,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>49</v>
@@ -16374,16 +16375,16 @@
     </row>
     <row r="8" spans="1:38" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>277</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>278</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>94</v>
@@ -16451,16 +16452,16 @@
     </row>
     <row r="9" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>94</v>
@@ -16528,16 +16529,16 @@
     </row>
     <row r="10" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>281</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>282</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P10" s="20">
         <v>0</v>
@@ -16599,13 +16600,13 @@
     </row>
     <row r="11" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>36</v>
@@ -16670,16 +16671,16 @@
     </row>
     <row r="12" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>285</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>286</v>
       </c>
       <c r="P12" s="20">
         <v>0</v>
@@ -16741,13 +16742,13 @@
     </row>
     <row r="13" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>55</v>
@@ -16812,13 +16813,13 @@
     </row>
     <row r="14" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>289</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>290</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>36</v>
@@ -16883,13 +16884,13 @@
     </row>
     <row r="15" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>36</v>
@@ -16957,16 +16958,16 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>294</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>295</v>
       </c>
       <c r="P16" s="20">
         <v>0</v>
@@ -17028,13 +17029,13 @@
     </row>
     <row r="17" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>297</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>55</v>
@@ -17099,22 +17100,22 @@
     </row>
     <row r="18" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>301</v>
-      </c>
       <c r="G18" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P18" s="20">
         <v>0</v>
@@ -17176,16 +17177,16 @@
     </row>
     <row r="19" spans="1:34" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C19" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>166</v>
       </c>
       <c r="P19" s="26">
         <v>0</v>
@@ -17247,19 +17248,19 @@
     </row>
     <row r="20" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="E20" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>304</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>305</v>
       </c>
       <c r="P20" s="26">
         <v>0</v>
